--- a/PFOA inhalation Rat/Data/PFOA_female_add-urine_Lupton_2020.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_female_add-urine_Lupton_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E27D44-9C21-4E5A-939F-32ADD030A878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75407B84-D8B9-4465-998C-1002A8375D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,7 +523,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="1">
-        <v>0.64500000000000002</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="D4" s="1">
         <v>4.7E-2</v>
@@ -542,7 +542,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="1">
-        <v>0.75</v>
+        <v>1.214</v>
       </c>
       <c r="D5" s="1">
         <v>4.7E-2</v>
@@ -561,7 +561,7 @@
         <v>96</v>
       </c>
       <c r="C6" s="1">
-        <v>0.75800000000000001</v>
+        <v>1.581</v>
       </c>
       <c r="D6" s="1">
         <v>4.7E-2</v>
@@ -580,7 +580,7 @@
         <v>120</v>
       </c>
       <c r="C7" s="1">
-        <v>0.78200000000000003</v>
+        <v>1.996</v>
       </c>
       <c r="D7" s="1">
         <v>4.7E-2</v>
@@ -599,7 +599,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="1">
-        <v>0.7629999999999999</v>
+        <v>2.3439999999999999</v>
       </c>
       <c r="D8" s="1">
         <v>4.7E-2</v>
@@ -618,7 +618,7 @@
         <v>168</v>
       </c>
       <c r="C9" s="1">
-        <v>0.73</v>
+        <v>2.726</v>
       </c>
       <c r="D9" s="1">
         <v>4.7E-2</v>
@@ -637,7 +637,7 @@
         <v>192</v>
       </c>
       <c r="C10" s="1">
-        <v>0.78500000000000003</v>
+        <v>3.129</v>
       </c>
       <c r="D10" s="1">
         <v>4.7E-2</v>
@@ -656,7 +656,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="1">
-        <v>0.82200000000000006</v>
+        <v>3.548</v>
       </c>
       <c r="D11" s="1">
         <v>4.7E-2</v>
@@ -675,7 +675,7 @@
         <v>240</v>
       </c>
       <c r="C12" s="1">
-        <v>0.79499999999999993</v>
+        <v>3.9239999999999999</v>
       </c>
       <c r="D12" s="1">
         <v>4.7E-2</v>
@@ -694,7 +694,7 @@
         <v>264</v>
       </c>
       <c r="C13" s="1">
-        <v>0.83699999999999997</v>
+        <v>4.3849999999999998</v>
       </c>
       <c r="D13" s="1">
         <v>4.7E-2</v>
@@ -713,7 +713,7 @@
         <v>288</v>
       </c>
       <c r="C14" s="1">
-        <v>0.78400000000000003</v>
+        <v>4.7080000000000002</v>
       </c>
       <c r="D14" s="1">
         <v>4.7E-2</v>
@@ -732,7 +732,7 @@
         <v>312</v>
       </c>
       <c r="C15" s="1">
-        <v>0.70399999999999996</v>
+        <v>5.0890000000000004</v>
       </c>
       <c r="D15" s="1">
         <v>4.7E-2</v>
@@ -751,7 +751,7 @@
         <v>336</v>
       </c>
       <c r="C16" s="1">
-        <v>0.82699999999999996</v>
+        <v>5.5350000000000001</v>
       </c>
       <c r="D16" s="1">
         <v>4.7E-2</v>
@@ -770,7 +770,7 @@
         <v>360</v>
       </c>
       <c r="C17" s="1">
-        <v>0.5</v>
+        <v>5.5890000000000004</v>
       </c>
       <c r="D17" s="1">
         <v>4.7E-2</v>
@@ -789,7 +789,7 @@
         <v>384</v>
       </c>
       <c r="C18" s="1">
-        <v>5.3999999999999999E-2</v>
+        <v>5.5890000000000004</v>
       </c>
       <c r="D18" s="1">
         <v>4.7E-2</v>

--- a/PFOA inhalation Rat/Data/PFOA_female_add-urine_Lupton_2020.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_female_add-urine_Lupton_2020.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsir\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75407B84-D8B9-4465-998C-1002A8375D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,24 +440,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="3" max="3" width="31.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" customWidth="1"/>
+    <col min="5" max="6" width="22.8984375" customWidth="1"/>
+    <col min="7" max="7" width="31.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +476,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -496,7 +495,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -504,7 +503,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>0.46399999999999997</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="D3" s="1">
         <v>4.7E-2</v>
@@ -515,7 +514,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -523,7 +522,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="1">
-        <v>0.82299999999999995</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D4" s="1">
         <v>4.7E-2</v>
@@ -534,7 +533,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -542,7 +541,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="1">
-        <v>1.214</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D5" s="1">
         <v>4.7E-2</v>
@@ -553,7 +552,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -561,7 +560,7 @@
         <v>96</v>
       </c>
       <c r="C6" s="1">
-        <v>1.581</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="D6" s="1">
         <v>4.7E-2</v>
@@ -572,7 +571,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -580,7 +579,7 @@
         <v>120</v>
       </c>
       <c r="C7" s="1">
-        <v>1.996</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D7" s="1">
         <v>4.7E-2</v>
@@ -591,7 +590,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -599,7 +598,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="1">
-        <v>2.3439999999999999</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D8" s="1">
         <v>4.7E-2</v>
@@ -610,7 +609,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -618,7 +617,7 @@
         <v>168</v>
       </c>
       <c r="C9" s="1">
-        <v>2.726</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D9" s="1">
         <v>4.7E-2</v>
@@ -629,7 +628,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -637,7 +636,7 @@
         <v>192</v>
       </c>
       <c r="C10" s="1">
-        <v>3.129</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="D10" s="1">
         <v>4.7E-2</v>
@@ -648,7 +647,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -656,7 +655,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="1">
-        <v>3.548</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D11" s="1">
         <v>4.7E-2</v>
@@ -667,7 +666,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -675,7 +674,7 @@
         <v>240</v>
       </c>
       <c r="C12" s="1">
-        <v>3.9239999999999999</v>
+        <v>0.376</v>
       </c>
       <c r="D12" s="1">
         <v>4.7E-2</v>
@@ -686,7 +685,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -694,7 +693,7 @@
         <v>264</v>
       </c>
       <c r="C13" s="1">
-        <v>4.3849999999999998</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D13" s="1">
         <v>4.7E-2</v>
@@ -705,7 +704,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -713,7 +712,7 @@
         <v>288</v>
       </c>
       <c r="C14" s="1">
-        <v>4.7080000000000002</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D14" s="1">
         <v>4.7E-2</v>
@@ -724,7 +723,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -732,7 +731,7 @@
         <v>312</v>
       </c>
       <c r="C15" s="1">
-        <v>5.0890000000000004</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D15" s="1">
         <v>4.7E-2</v>
@@ -743,7 +742,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -751,7 +750,7 @@
         <v>336</v>
       </c>
       <c r="C16" s="1">
-        <v>5.5350000000000001</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D16" s="1">
         <v>4.7E-2</v>
@@ -762,7 +761,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,7 +769,7 @@
         <v>360</v>
       </c>
       <c r="C17" s="1">
-        <v>5.5890000000000004</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D17" s="1">
         <v>4.7E-2</v>
@@ -781,7 +780,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,7 +788,7 @@
         <v>384</v>
       </c>
       <c r="C18" s="1">
-        <v>5.5890000000000004</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
         <v>4.7E-2</v>
@@ -800,7 +799,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -808,35 +807,35 @@
       <c r="E19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
